--- a/ROSTER.xlsx
+++ b/ROSTER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fiona\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fiona\optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B93A15-9A92-410E-A3C5-69FA30053CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8770A6-0A09-43C0-9FA2-00044F44509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{CC1FD35F-1BF2-4607-B7E3-2705B7F58F0E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="156">
   <si>
     <t>Officer</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>DC29</t>
+  </si>
+  <si>
+    <t>21:45</t>
+  </si>
+  <si>
+    <t>09:45</t>
   </si>
 </sst>
 </file>
@@ -876,7 +882,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C182" sqref="C182:D201"/>
     </sheetView>
   </sheetViews>
@@ -966,7 +972,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,7 +1392,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1456,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1526,7 +1532,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,7 +1602,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1666,7 +1672,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1736,7 +1742,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,7 +1952,7 @@
         <v>26</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,7 +2022,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,7 +2092,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,7 +2162,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,7 +2232,7 @@
         <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2296,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,7 +2442,7 @@
         <v>21</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,7 +2652,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,7 +2722,7 @@
         <v>21</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,7 +2792,7 @@
         <v>26</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,7 +2932,7 @@
         <v>13</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,7 +3002,7 @@
         <v>21</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,7 +3072,7 @@
         <v>26</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3136,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3206,7 +3212,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,7 +3282,7 @@
         <v>21</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,7 +3352,7 @@
         <v>26</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3416,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,7 +3562,7 @@
         <v>21</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,7 +3632,7 @@
         <v>26</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3709,8 +3715,8 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146:D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3786,7 +3792,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3842,7 +3848,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3898,7 +3904,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,7 +3960,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4010,7 +4016,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4066,7 +4072,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4122,7 +4128,7 @@
         <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4178,7 +4184,7 @@
         <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,7 +4240,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,7 +4296,7 @@
         <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4346,7 +4352,7 @@
         <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4402,7 +4408,7 @@
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4458,7 +4464,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,7 +4520,7 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4570,7 +4576,7 @@
         <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4626,7 +4632,7 @@
         <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4682,7 +4688,7 @@
         <v>100</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,7 +4744,7 @@
         <v>102</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,7 +4800,7 @@
         <v>107</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,7 +4856,7 @@
         <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4906,7 +4912,7 @@
         <v>100</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,7 +4968,7 @@
         <v>102</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5018,7 +5024,7 @@
         <v>107</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,7 +5080,7 @@
         <v>108</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5130,7 +5136,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5186,7 +5192,7 @@
         <v>102</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5242,7 +5248,7 @@
         <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5298,7 +5304,7 @@
         <v>108</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5354,7 +5360,7 @@
         <v>100</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5410,7 +5416,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5466,7 +5472,7 @@
         <v>107</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5522,7 +5528,7 @@
         <v>108</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5578,7 +5584,7 @@
         <v>100</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,7 +5640,7 @@
         <v>102</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,7 +5696,7 @@
         <v>107</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5746,7 +5752,7 @@
         <v>108</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5802,7 +5808,7 @@
         <v>100</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,7 +5864,7 @@
         <v>102</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5914,7 +5920,7 @@
         <v>107</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,7 +5976,7 @@
         <v>108</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5983,8 +5989,8 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C162" sqref="C162:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6073,7 +6079,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6143,7 +6149,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6213,7 +6219,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6283,7 +6289,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,7 +6359,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,7 +6429,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6493,7 +6499,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6563,7 +6569,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6633,7 +6639,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6703,7 +6709,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6773,7 +6779,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6843,7 +6849,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6913,7 +6919,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6983,7 +6989,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -7053,7 +7059,7 @@
         <v>26</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -7123,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -7193,7 +7199,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -7263,7 +7269,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7333,7 +7339,7 @@
         <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -7403,7 +7409,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7473,7 +7479,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7543,7 +7549,7 @@
         <v>21</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -7613,7 +7619,7 @@
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7683,7 +7689,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7753,7 +7759,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -7823,7 +7829,7 @@
         <v>21</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -7893,7 +7899,7 @@
         <v>26</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -7963,7 +7969,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -8033,7 +8039,7 @@
         <v>13</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -8103,7 +8109,7 @@
         <v>21</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -8173,7 +8179,7 @@
         <v>26</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -8243,7 +8249,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -8313,7 +8319,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -8383,7 +8389,7 @@
         <v>21</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -8453,7 +8459,7 @@
         <v>26</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -8523,7 +8529,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -8536,8 +8542,8 @@
   <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J123" sqref="J123"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8612,7 +8618,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8668,7 +8674,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8724,7 +8730,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8780,7 +8786,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8836,7 +8842,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8892,7 +8898,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8948,7 +8954,7 @@
         <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9004,7 +9010,7 @@
         <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9060,7 +9066,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9116,7 +9122,7 @@
         <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9172,7 +9178,7 @@
         <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9228,7 +9234,7 @@
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9284,7 +9290,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9340,7 +9346,7 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -9396,7 +9402,7 @@
         <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -9452,7 +9458,7 @@
         <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -9508,7 +9514,7 @@
         <v>100</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -9564,7 +9570,7 @@
         <v>102</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -9620,7 +9626,7 @@
         <v>107</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -9676,7 +9682,7 @@
         <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -9732,7 +9738,7 @@
         <v>100</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -9788,7 +9794,7 @@
         <v>102</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -9844,7 +9850,7 @@
         <v>107</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -9900,7 +9906,7 @@
         <v>108</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -9956,7 +9962,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -10012,7 +10018,7 @@
         <v>102</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -10068,7 +10074,7 @@
         <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -10124,7 +10130,7 @@
         <v>108</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -10180,7 +10186,7 @@
         <v>100</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -10236,7 +10242,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -10292,7 +10298,7 @@
         <v>107</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -10348,7 +10354,7 @@
         <v>108</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/ROSTER.xlsx
+++ b/ROSTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fiona\optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8770A6-0A09-43C0-9FA2-00044F44509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23AE62-AC48-4DCB-A7F0-A7329590E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{CC1FD35F-1BF2-4607-B7E3-2705B7F58F0E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="154">
   <si>
     <t>Officer</t>
   </si>
@@ -501,12 +501,6 @@
   </si>
   <si>
     <t>DC29</t>
-  </si>
-  <si>
-    <t>21:45</t>
-  </si>
-  <si>
-    <t>09:45</t>
   </si>
 </sst>
 </file>
@@ -882,7 +876,7 @@
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C182" sqref="C182:D201"/>
     </sheetView>
   </sheetViews>
@@ -972,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1042,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1112,7 +1106,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,7 +1246,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,7 +1316,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,7 +1386,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1532,7 +1526,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,7 +1596,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1672,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,7 +1736,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1812,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,7 +1876,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1952,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2022,7 +2016,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,7 +2086,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2162,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,7 +2226,7 @@
         <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2302,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,7 +2366,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2442,7 +2436,7 @@
         <v>21</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2512,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +2576,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,7 +2646,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,7 +2716,7 @@
         <v>21</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2792,7 +2786,7 @@
         <v>26</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2862,7 +2856,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,7 +2926,7 @@
         <v>13</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,7 +2996,7 @@
         <v>21</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3066,7 @@
         <v>26</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,7 +3206,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3282,7 +3276,7 @@
         <v>21</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,7 +3346,7 @@
         <v>26</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3422,7 +3416,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,7 +3486,7 @@
         <v>13</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3562,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3632,7 +3626,7 @@
         <v>26</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3702,7 +3696,7 @@
         <v>12</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3715,8 +3709,8 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146:D161"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,7 +3786,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3848,7 +3842,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,7 +3898,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3960,7 +3954,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4016,7 +4010,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,7 +4066,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,7 +4122,7 @@
         <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,7 +4178,7 @@
         <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,7 +4234,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,7 +4290,7 @@
         <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,7 +4346,7 @@
         <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4408,7 +4402,7 @@
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,7 +4458,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,7 +4514,7 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4576,7 +4570,7 @@
         <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4632,7 +4626,7 @@
         <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,7 +4682,7 @@
         <v>100</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4744,7 +4738,7 @@
         <v>102</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,7 +4794,7 @@
         <v>107</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4856,7 +4850,7 @@
         <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4912,7 +4906,7 @@
         <v>100</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,7 +4962,7 @@
         <v>102</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,7 +5018,7 @@
         <v>107</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5080,7 +5074,7 @@
         <v>108</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,7 +5130,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5192,7 +5186,7 @@
         <v>102</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5248,7 +5242,7 @@
         <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,7 +5298,7 @@
         <v>108</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,7 +5410,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5472,7 +5466,7 @@
         <v>107</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,7 +5522,7 @@
         <v>108</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,7 +5578,7 @@
         <v>100</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,7 +5634,7 @@
         <v>102</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5696,7 +5690,7 @@
         <v>107</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5752,7 +5746,7 @@
         <v>108</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,7 +5802,7 @@
         <v>100</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5864,7 +5858,7 @@
         <v>102</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5920,7 +5914,7 @@
         <v>107</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5976,7 +5970,7 @@
         <v>108</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5989,7 +5983,7 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C162" sqref="C162:D181"/>
     </sheetView>
   </sheetViews>
@@ -6079,7 +6073,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6149,7 +6143,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6219,7 +6213,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,7 +6283,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6359,7 +6353,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6429,7 +6423,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6499,7 +6493,7 @@
         <v>26</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -6569,7 +6563,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,7 +6633,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,7 +6703,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6779,7 +6773,7 @@
         <v>26</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -6849,7 +6843,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,7 +6913,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6989,7 +6983,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -7059,7 +7053,7 @@
         <v>26</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -7129,7 +7123,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -7199,7 +7193,7 @@
         <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -7269,7 +7263,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -7339,7 +7333,7 @@
         <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -7409,7 +7403,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -7479,7 +7473,7 @@
         <v>13</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -7549,7 +7543,7 @@
         <v>21</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -7619,7 +7613,7 @@
         <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -7689,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -7759,7 +7753,7 @@
         <v>13</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -7829,7 +7823,7 @@
         <v>21</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -7899,7 +7893,7 @@
         <v>26</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -7969,7 +7963,7 @@
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -8039,7 +8033,7 @@
         <v>13</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,7 +8103,7 @@
         <v>21</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -8179,7 +8173,7 @@
         <v>26</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -8249,7 +8243,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -8319,7 +8313,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -8389,7 +8383,7 @@
         <v>21</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -8459,7 +8453,7 @@
         <v>26</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -8529,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8618,7 +8612,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -8674,7 +8668,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -8730,7 +8724,7 @@
         <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8786,7 +8780,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -8842,7 +8836,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -8898,7 +8892,7 @@
         <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -8954,7 +8948,7 @@
         <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9010,7 +9004,7 @@
         <v>108</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,7 +9060,7 @@
         <v>100</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -9122,7 +9116,7 @@
         <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9178,7 +9172,7 @@
         <v>107</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9234,7 +9228,7 @@
         <v>108</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9290,7 +9284,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -9346,7 +9340,7 @@
         <v>102</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -9402,7 +9396,7 @@
         <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -9458,7 +9452,7 @@
         <v>108</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -9514,7 +9508,7 @@
         <v>100</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -9570,7 +9564,7 @@
         <v>102</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -9626,7 +9620,7 @@
         <v>107</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -9682,7 +9676,7 @@
         <v>108</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -9738,7 +9732,7 @@
         <v>100</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -9794,7 +9788,7 @@
         <v>102</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -9850,7 +9844,7 @@
         <v>107</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -9906,7 +9900,7 @@
         <v>108</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -9962,7 +9956,7 @@
         <v>100</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -10018,7 +10012,7 @@
         <v>102</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -10074,7 +10068,7 @@
         <v>107</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -10130,7 +10124,7 @@
         <v>108</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -10186,7 +10180,7 @@
         <v>100</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -10242,7 +10236,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -10298,7 +10292,7 @@
         <v>107</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -10354,7 +10348,7 @@
         <v>108</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ROSTER.xlsx
+++ b/ROSTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fiona\optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23AE62-AC48-4DCB-A7F0-A7329590E528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB6AFA-4B8B-40EE-A251-9792B5B5AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{CC1FD35F-1BF2-4607-B7E3-2705B7F58F0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC1FD35F-1BF2-4607-B7E3-2705B7F58F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="arrival morning" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="departure morning" sheetId="3" r:id="rId3"/>
     <sheet name="departure night" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'arrival morning'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'arrival night'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'departure morning'!$A$1:$D$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'departure night'!$A$1:$D$129</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="153">
   <si>
     <t>Officer</t>
   </si>
@@ -153,9 +159,6 @@
   </si>
   <si>
     <t>AC29</t>
-  </si>
-  <si>
-    <t>AAC9</t>
   </si>
   <si>
     <t>9</t>
@@ -875,9 +878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B8DB26-1280-4572-9CCF-3E39697C27B5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182:D201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -1008,7 +1011,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,7 +1207,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -1240,7 +1243,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -1288,7 +1291,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,10 +1464,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -1475,24 +1478,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>18</v>
@@ -1503,13 +1506,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>12</v>
@@ -1517,10 +1520,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>13</v>
@@ -1531,10 +1534,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -1545,10 +1548,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
@@ -1559,24 +1562,24 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>20</v>
@@ -1587,10 +1590,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>21</v>
@@ -1601,10 +1604,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -1615,10 +1618,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>23</v>
@@ -1629,10 +1632,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
@@ -1643,10 +1646,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>27</v>
@@ -1671,7 +1674,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>27</v>
@@ -1685,10 +1688,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>6</v>
@@ -1699,10 +1702,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>30</v>
@@ -1713,10 +1716,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
@@ -1727,10 +1730,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -1741,10 +1744,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -1755,24 +1758,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>18</v>
@@ -1783,13 +1786,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>12</v>
@@ -1797,10 +1800,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>13</v>
@@ -1811,10 +1814,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
@@ -1825,10 +1828,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>16</v>
@@ -1839,24 +1842,24 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
@@ -1867,10 +1870,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>21</v>
@@ -1884,7 +1887,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -1898,7 +1901,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
@@ -1912,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>24</v>
@@ -1926,7 +1929,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>25</v>
@@ -1951,7 +1954,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>27</v>
@@ -1965,10 +1968,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -1979,10 +1982,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>30</v>
@@ -1993,10 +1996,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>31</v>
@@ -2007,10 +2010,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -2021,10 +2024,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -2035,24 +2038,24 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>18</v>
@@ -2063,13 +2066,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>12</v>
@@ -2077,10 +2080,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>13</v>
@@ -2091,10 +2094,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -2105,10 +2108,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
@@ -2119,24 +2122,24 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>20</v>
@@ -2147,10 +2150,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>21</v>
@@ -2161,10 +2164,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -2175,10 +2178,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>23</v>
@@ -2189,10 +2192,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>24</v>
@@ -2203,10 +2206,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>25</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>27</v>
@@ -2231,7 +2234,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>27</v>
@@ -2245,10 +2248,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
@@ -2259,10 +2262,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>30</v>
@@ -2273,10 +2276,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>31</v>
@@ -2287,10 +2290,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
@@ -2301,10 +2304,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
@@ -2315,24 +2318,24 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>18</v>
@@ -2343,13 +2346,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>12</v>
@@ -2357,10 +2360,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>13</v>
@@ -2371,10 +2374,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
@@ -2385,10 +2388,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
@@ -2399,24 +2402,24 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>20</v>
@@ -2427,10 +2430,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>21</v>
@@ -2441,10 +2444,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>5</v>
@@ -2455,10 +2458,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>23</v>
@@ -2469,10 +2472,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>24</v>
@@ -2483,10 +2486,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>25</v>
@@ -2497,7 +2500,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>27</v>
@@ -2511,7 +2514,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>27</v>
@@ -2525,10 +2528,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>6</v>
@@ -2539,10 +2542,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>30</v>
@@ -2553,10 +2556,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>31</v>
@@ -2567,10 +2570,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
@@ -2581,10 +2584,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
@@ -2595,24 +2598,24 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>18</v>
@@ -2623,13 +2626,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>12</v>
@@ -2637,10 +2640,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>13</v>
@@ -2651,10 +2654,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>5</v>
@@ -2665,10 +2668,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>16</v>
@@ -2679,24 +2682,24 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>20</v>
@@ -2707,10 +2710,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>21</v>
@@ -2721,10 +2724,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>5</v>
@@ -2735,10 +2738,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -2749,10 +2752,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>24</v>
@@ -2763,10 +2766,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>25</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>27</v>
@@ -2791,7 +2794,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>27</v>
@@ -2805,10 +2808,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>6</v>
@@ -2819,10 +2822,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>30</v>
@@ -2833,10 +2836,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>31</v>
@@ -2847,10 +2850,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>12</v>
@@ -2861,10 +2864,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>5</v>
@@ -2875,24 +2878,24 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>18</v>
@@ -2903,13 +2906,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>12</v>
@@ -2917,10 +2920,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>13</v>
@@ -2931,10 +2934,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
@@ -2945,10 +2948,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>16</v>
@@ -2959,24 +2962,24 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>20</v>
@@ -2987,10 +2990,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>21</v>
@@ -3001,10 +3004,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>5</v>
@@ -3015,10 +3018,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>23</v>
@@ -3029,10 +3032,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>24</v>
@@ -3043,10 +3046,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>25</v>
@@ -3057,7 +3060,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>27</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>27</v>
@@ -3085,10 +3088,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>6</v>
@@ -3099,10 +3102,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>30</v>
@@ -3113,10 +3116,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>31</v>
@@ -3127,10 +3130,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>12</v>
@@ -3141,10 +3144,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
@@ -3155,24 +3158,24 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>18</v>
@@ -3183,13 +3186,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>12</v>
@@ -3197,10 +3200,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>13</v>
@@ -3211,10 +3214,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
@@ -3225,10 +3228,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>16</v>
@@ -3239,24 +3242,24 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>20</v>
@@ -3267,10 +3270,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>21</v>
@@ -3281,10 +3284,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>5</v>
@@ -3295,10 +3298,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -3309,10 +3312,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>24</v>
@@ -3323,10 +3326,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>25</v>
@@ -3337,7 +3340,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>27</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>27</v>
@@ -3365,10 +3368,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>6</v>
@@ -3379,10 +3382,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>30</v>
@@ -3393,10 +3396,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>31</v>
@@ -3407,10 +3410,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>12</v>
@@ -3421,10 +3424,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>5</v>
@@ -3435,24 +3438,24 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>18</v>
@@ -3463,13 +3466,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>12</v>
@@ -3477,10 +3480,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>13</v>
@@ -3491,10 +3494,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>5</v>
@@ -3505,10 +3508,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>16</v>
@@ -3519,24 +3522,24 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>20</v>
@@ -3547,10 +3550,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>21</v>
@@ -3561,10 +3564,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>5</v>
@@ -3575,10 +3578,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>23</v>
@@ -3589,10 +3592,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>24</v>
@@ -3603,10 +3606,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>25</v>
@@ -3617,7 +3620,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>27</v>
@@ -3631,7 +3634,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>27</v>
@@ -3645,10 +3648,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>6</v>
@@ -3659,10 +3662,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>30</v>
@@ -3673,10 +3676,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>31</v>
@@ -3687,10 +3690,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>12</v>
@@ -3700,6 +3703,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{D3B8DB26-1280-4572-9CCF-3E39697C27B5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3710,7 +3714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3737,13 +3741,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -3755,10 +3759,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3769,10 +3773,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3780,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3800,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3811,10 +3815,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3822,13 +3826,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,7 +3843,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -3856,7 +3860,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3867,10 +3871,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3881,10 +3885,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3895,7 +3899,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -3912,7 +3916,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3923,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,10 +3941,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,10 +3952,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -3968,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,10 +3983,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3993,10 +3997,10 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,7 +4011,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -4024,7 +4028,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,10 +4039,10 @@
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,7 +4067,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -4074,13 +4078,13 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,10 +4095,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,7 +4123,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -4136,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,10 +4151,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,10 +4165,10 @@
         <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4175,7 +4179,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -4183,55 +4187,55 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
@@ -4239,55 +4243,55 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -4295,55 +4299,55 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
@@ -4351,55 +4355,55 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
@@ -4407,55 +4411,55 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
@@ -4463,55 +4467,55 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -4522,13 +4526,13 @@
         <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,13 +4540,13 @@
         <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +4554,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,10 +4568,10 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
@@ -4575,55 +4579,55 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
@@ -4631,55 +4635,55 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
@@ -4687,55 +4691,55 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -4743,55 +4747,55 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
@@ -4799,55 +4803,55 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
@@ -4855,55 +4859,55 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>5</v>
@@ -4911,55 +4915,55 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>5</v>
@@ -4967,55 +4971,55 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
@@ -5023,7 +5027,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>36</v>
@@ -5032,46 +5036,46 @@
         <v>14</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
@@ -5079,55 +5083,55 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
@@ -5135,55 +5139,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -5191,55 +5195,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
@@ -5247,55 +5251,55 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
@@ -5303,55 +5307,55 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C116" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -5359,55 +5363,55 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
@@ -5415,55 +5419,55 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>5</v>
@@ -5471,55 +5475,55 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
@@ -5527,55 +5531,55 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>5</v>
@@ -5583,55 +5587,55 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>5</v>
@@ -5639,55 +5643,55 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>5</v>
@@ -5695,55 +5699,55 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>5</v>
@@ -5751,55 +5755,55 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>5</v>
@@ -5807,55 +5811,55 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>5</v>
@@ -5863,55 +5867,55 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>5</v>
@@ -5919,61 +5923,62 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{592F9FEF-4B0C-4828-801F-F6081BAD2A7F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5984,7 +5989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C162" sqref="C162:D181"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6011,7 +6016,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -6025,13 +6030,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,7 +6044,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
@@ -6053,10 +6058,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -6067,7 +6072,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -6081,7 +6086,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -6095,7 +6100,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -6109,13 +6114,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6123,7 +6128,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
@@ -6137,7 +6142,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -6151,7 +6156,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -6165,7 +6170,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -6179,7 +6184,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
@@ -6193,7 +6198,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>25</v>
@@ -6235,7 +6240,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -6249,7 +6254,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -6263,7 +6268,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>31</v>
@@ -6277,7 +6282,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -6291,7 +6296,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -6305,13 +6310,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6319,7 +6324,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>18</v>
@@ -6333,10 +6338,10 @@
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>12</v>
@@ -6347,7 +6352,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -6361,7 +6366,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -6375,7 +6380,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -6389,13 +6394,13 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6403,7 +6408,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>20</v>
@@ -6417,7 +6422,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>21</v>
@@ -6431,7 +6436,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -6445,7 +6450,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>23</v>
@@ -6459,7 +6464,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
@@ -6473,7 +6478,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>25</v>
@@ -6515,7 +6520,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>6</v>
@@ -6529,7 +6534,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>30</v>
@@ -6543,7 +6548,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>31</v>
@@ -6557,7 +6562,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -6568,10 +6573,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>5</v>
@@ -6582,24 +6587,24 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>18</v>
@@ -6610,13 +6615,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>12</v>
@@ -6624,10 +6629,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>13</v>
@@ -6638,10 +6643,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
@@ -6652,10 +6657,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>16</v>
@@ -6666,24 +6671,24 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>20</v>
@@ -6694,10 +6699,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>21</v>
@@ -6708,10 +6713,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
@@ -6722,10 +6727,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>23</v>
@@ -6736,10 +6741,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
@@ -6750,10 +6755,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>25</v>
@@ -6764,7 +6769,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>27</v>
@@ -6778,7 +6783,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>27</v>
@@ -6792,10 +6797,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>6</v>
@@ -6806,10 +6811,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>30</v>
@@ -6820,10 +6825,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>31</v>
@@ -6834,10 +6839,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
@@ -6848,10 +6853,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
@@ -6862,24 +6867,24 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>18</v>
@@ -6890,13 +6895,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>12</v>
@@ -6904,10 +6909,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>13</v>
@@ -6918,10 +6923,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>5</v>
@@ -6932,10 +6937,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>16</v>
@@ -6946,24 +6951,24 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
@@ -6974,10 +6979,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>21</v>
@@ -6991,7 +6996,7 @@
         <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>5</v>
@@ -7005,7 +7010,7 @@
         <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
@@ -7019,7 +7024,7 @@
         <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>24</v>
@@ -7033,7 +7038,7 @@
         <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>25</v>
@@ -7058,7 +7063,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>27</v>
@@ -7072,10 +7077,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>6</v>
@@ -7086,10 +7091,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>30</v>
@@ -7100,10 +7105,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>31</v>
@@ -7114,10 +7119,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
@@ -7128,10 +7133,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>5</v>
@@ -7142,24 +7147,24 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>18</v>
@@ -7170,13 +7175,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>12</v>
@@ -7184,10 +7189,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>13</v>
@@ -7198,10 +7203,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>5</v>
@@ -7212,10 +7217,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>16</v>
@@ -7226,24 +7231,24 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>20</v>
@@ -7254,10 +7259,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>21</v>
@@ -7268,10 +7273,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -7282,10 +7287,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>23</v>
@@ -7296,10 +7301,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>24</v>
@@ -7310,10 +7315,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>25</v>
@@ -7324,7 +7329,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>27</v>
@@ -7338,7 +7343,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>27</v>
@@ -7352,10 +7357,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>6</v>
@@ -7366,10 +7371,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>30</v>
@@ -7380,10 +7385,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>31</v>
@@ -7394,10 +7399,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
@@ -7408,10 +7413,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>5</v>
@@ -7422,24 +7427,24 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>18</v>
@@ -7450,13 +7455,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>12</v>
@@ -7464,10 +7469,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>13</v>
@@ -7478,10 +7483,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
@@ -7492,10 +7497,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
@@ -7506,24 +7511,24 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>20</v>
@@ -7534,10 +7539,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>21</v>
@@ -7548,10 +7553,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>5</v>
@@ -7562,10 +7567,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>23</v>
@@ -7576,10 +7581,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>24</v>
@@ -7590,10 +7595,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>25</v>
@@ -7604,7 +7609,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>27</v>
@@ -7618,7 +7623,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>27</v>
@@ -7632,10 +7637,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>6</v>
@@ -7646,10 +7651,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>30</v>
@@ -7660,10 +7665,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>31</v>
@@ -7674,10 +7679,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
@@ -7688,10 +7693,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
@@ -7702,24 +7707,24 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>18</v>
@@ -7730,13 +7735,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>12</v>
@@ -7744,10 +7749,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>13</v>
@@ -7758,10 +7763,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>5</v>
@@ -7772,10 +7777,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>16</v>
@@ -7786,24 +7791,24 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>20</v>
@@ -7814,10 +7819,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>21</v>
@@ -7828,10 +7833,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>5</v>
@@ -7842,10 +7847,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -7856,10 +7861,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>24</v>
@@ -7870,10 +7875,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>25</v>
@@ -7884,7 +7889,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>27</v>
@@ -7898,7 +7903,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>27</v>
@@ -7912,10 +7917,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>6</v>
@@ -7926,10 +7931,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>30</v>
@@ -7940,10 +7945,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>31</v>
@@ -7954,10 +7959,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>12</v>
@@ -7968,10 +7973,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>5</v>
@@ -7982,24 +7987,24 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>18</v>
@@ -8010,13 +8015,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>12</v>
@@ -8024,10 +8029,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>13</v>
@@ -8038,10 +8043,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
@@ -8052,10 +8057,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>16</v>
@@ -8066,24 +8071,24 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>20</v>
@@ -8094,10 +8099,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>21</v>
@@ -8108,10 +8113,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>5</v>
@@ -8122,10 +8127,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>23</v>
@@ -8136,10 +8141,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>24</v>
@@ -8150,10 +8155,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>25</v>
@@ -8164,7 +8169,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>27</v>
@@ -8178,7 +8183,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>27</v>
@@ -8192,10 +8197,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>6</v>
@@ -8206,10 +8211,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>30</v>
@@ -8220,10 +8225,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>31</v>
@@ -8234,10 +8239,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>12</v>
@@ -8248,10 +8253,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
@@ -8262,24 +8267,24 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>18</v>
@@ -8290,13 +8295,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>12</v>
@@ -8304,10 +8309,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>13</v>
@@ -8318,10 +8323,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
@@ -8332,10 +8337,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>16</v>
@@ -8346,24 +8351,24 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>20</v>
@@ -8374,10 +8379,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>21</v>
@@ -8388,10 +8393,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>5</v>
@@ -8402,10 +8407,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>23</v>
@@ -8416,10 +8421,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>24</v>
@@ -8430,10 +8435,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>25</v>
@@ -8444,7 +8449,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>27</v>
@@ -8458,7 +8463,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>27</v>
@@ -8472,10 +8477,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>6</v>
@@ -8486,10 +8491,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>30</v>
@@ -8500,10 +8505,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>31</v>
@@ -8514,10 +8519,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>12</v>
@@ -8527,6 +8532,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D181" xr:uid="{FAEEE74E-578E-4A13-9BFA-6CC5D359C9EA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8535,9 +8541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D35025-DA41-4037-B39D-98DDA8448849}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114:D129"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,13 +8570,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8578,13 +8584,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -8592,13 +8598,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8606,10 +8612,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -8620,13 +8626,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -8634,13 +8640,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -8648,13 +8654,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -8662,10 +8668,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
@@ -8676,13 +8682,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8690,13 +8696,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8704,13 +8710,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8718,10 +8724,10 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -8732,13 +8738,13 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -8746,13 +8752,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8760,13 +8766,13 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -8774,10 +8780,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -8788,13 +8794,13 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -8802,13 +8808,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8816,13 +8822,13 @@
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -8830,10 +8836,10 @@
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -8844,13 +8850,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -8858,13 +8864,13 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -8872,13 +8878,13 @@
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -8886,10 +8892,10 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>5</v>
@@ -8900,13 +8906,13 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -8914,13 +8920,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -8928,13 +8934,13 @@
         <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -8942,10 +8948,10 @@
         <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -8956,13 +8962,13 @@
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -8970,13 +8976,13 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -8984,13 +8990,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8998,10 +9004,10 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -9009,55 +9015,55 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
@@ -9065,55 +9071,55 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -9121,55 +9127,55 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>5</v>
@@ -9177,55 +9183,55 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>5</v>
@@ -9233,55 +9239,55 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>5</v>
@@ -9289,55 +9295,55 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>5</v>
@@ -9348,13 +9354,13 @@
         <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -9362,13 +9368,13 @@
         <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -9376,13 +9382,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -9390,10 +9396,10 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>5</v>
@@ -9401,55 +9407,55 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
@@ -9457,55 +9463,55 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>5</v>
@@ -9513,55 +9519,55 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>5</v>
@@ -9569,55 +9575,55 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>5</v>
@@ -9625,55 +9631,55 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>5</v>
@@ -9681,55 +9687,55 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>5</v>
@@ -9737,55 +9743,55 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>5</v>
@@ -9793,55 +9799,55 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
@@ -9849,55 +9855,55 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>5</v>
@@ -9905,55 +9911,55 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>5</v>
@@ -9961,55 +9967,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>5</v>
@@ -10017,55 +10023,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>5</v>
@@ -10073,55 +10079,55 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>5</v>
@@ -10129,55 +10135,55 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>5</v>
@@ -10185,55 +10191,55 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
@@ -10241,55 +10247,55 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>5</v>
@@ -10297,61 +10303,62 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D129" xr:uid="{63D35025-DA41-4037-B39D-98DDA8448849}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ROSTER.xlsx
+++ b/ROSTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fiona\optimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB6AFA-4B8B-40EE-A251-9792B5B5AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898AD5F4-0C6F-446C-A732-8DEA267EBC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC1FD35F-1BF2-4607-B7E3-2705B7F58F0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{CC1FD35F-1BF2-4607-B7E3-2705B7F58F0E}"/>
   </bookViews>
   <sheets>
     <sheet name="arrival morning" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="171">
   <si>
     <t>Officer</t>
   </si>
@@ -504,16 +504,76 @@
   </si>
   <si>
     <t>DC29</t>
+  </si>
+  <si>
+    <t>TRAIN 1</t>
+  </si>
+  <si>
+    <t>TRAIN 2</t>
+  </si>
+  <si>
+    <t>TRAIN 3</t>
+  </si>
+  <si>
+    <t>TRAIN 4</t>
+  </si>
+  <si>
+    <t>AC4</t>
+  </si>
+  <si>
+    <t>TRAIN 5</t>
+  </si>
+  <si>
+    <t>TRAIN 6</t>
+  </si>
+  <si>
+    <t>TRAIN 7</t>
+  </si>
+  <si>
+    <t>TRAIN 8</t>
+  </si>
+  <si>
+    <t>OWC 1</t>
+  </si>
+  <si>
+    <t>DC9</t>
+  </si>
+  <si>
+    <t>OWC 2</t>
+  </si>
+  <si>
+    <t>01:45</t>
+  </si>
+  <si>
+    <t>DC10</t>
+  </si>
+  <si>
+    <t>OWC 3</t>
+  </si>
+  <si>
+    <t>DC20</t>
+  </si>
+  <si>
+    <t>OWC 4</t>
+  </si>
+  <si>
+    <t>DC19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -878,9 +938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B8DB26-1280-4572-9CCF-3E39697C27B5}">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,11 +3770,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592F9FEF-4B0C-4828-801F-F6081BAD2A7F}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5977,8 +6037,121 @@
         <v>5</v>
       </c>
     </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{592F9FEF-4B0C-4828-801F-F6081BAD2A7F}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8539,11 +8712,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D35025-DA41-4037-B39D-98DDA8448849}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10357,6 +10530,118 @@
         <v>5</v>
       </c>
     </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D129" xr:uid="{63D35025-DA41-4037-B39D-98DDA8448849}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
